--- a/数据整理/stocks/A股/上证主板/600938-中国海油.xlsx
+++ b/数据整理/stocks/A股/上证主板/600938-中国海油.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>141</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5853,56 +5905,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>141</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600938-中国海油.xlsx
+++ b/数据整理/stocks/A股/上证主板/600938-中国海油.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>202</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>141</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>23.35</v>
       </c>
     </row>
@@ -498,6 +515,7724 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H203"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>170.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.4603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6846</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5407</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5350</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3090</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银银和利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>60.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银新增益混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001115</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发聚安混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大摩量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001498</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信鑫荣回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银新生利混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>32.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015133</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>35.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009351</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>15.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013470</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001116</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发聚安混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011771</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015134</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013469</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定开混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004276</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>15.94</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>009624</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定开混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>35.69</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009352</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009028</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>004277</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>35.02</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>014845</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>015812</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>建信鑫荣回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>011772</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600938-中国海油.xlsx
+++ b/数据整理/stocks/A股/上证主板/600938-中国海油.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>202</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>141</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>23.35</v>
       </c>
     </row>
@@ -515,6 +532,3894 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>017787</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7575</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6320</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5352</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3111</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2547</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012214</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银银和利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015946</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银新增益混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015133</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003603</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012215</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015134</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安鼎安优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>36.35</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003604</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8232,7 +12137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
